--- a/model/results/mix3_ggpos_h2pos/v_emissions.xlsx
+++ b/model/results/mix3_ggpos_h2pos/v_emissions.xlsx
@@ -790,10 +790,10 @@
         <v>2776335.897435897</v>
       </c>
       <c r="E3" t="n">
+        <v>816538.3333333334</v>
+      </c>
+      <c r="F3" t="n">
         <v>849791.0256410255</v>
-      </c>
-      <c r="F3" t="n">
-        <v>816538.3333333334</v>
       </c>
       <c r="G3" t="n">
         <v>65600</v>
@@ -921,10 +921,10 @@
         <v>2776335.897435897</v>
       </c>
       <c r="E4" t="n">
+        <v>816538.3333333334</v>
+      </c>
+      <c r="F4" t="n">
         <v>849791.0256410255</v>
-      </c>
-      <c r="F4" t="n">
-        <v>816538.3333333334</v>
       </c>
       <c r="G4" t="n">
         <v>65600</v>
@@ -1052,10 +1052,10 @@
         <v>2776335.897435897</v>
       </c>
       <c r="E5" t="n">
+        <v>816538.3333333334</v>
+      </c>
+      <c r="F5" t="n">
         <v>849791.0256410255</v>
-      </c>
-      <c r="F5" t="n">
-        <v>816538.3333333334</v>
       </c>
       <c r="G5" t="n">
         <v>65600</v>
@@ -1174,19 +1174,19 @@
         <v>2025</v>
       </c>
       <c r="B6" t="n">
-        <v>2776335.897435897</v>
+        <v>1520949.23076923</v>
       </c>
       <c r="C6" t="n">
-        <v>2053714.411431808</v>
+        <v>1520949.230769231</v>
       </c>
       <c r="D6" t="n">
-        <v>1520949.23076923</v>
+        <v>2540594.411431808</v>
       </c>
       <c r="E6" t="n">
-        <v>465537.6923076921</v>
+        <v>624411.6666666666</v>
       </c>
       <c r="F6" t="n">
-        <v>240158.3333333333</v>
+        <v>849791.0256410255</v>
       </c>
       <c r="G6" t="n">
         <v>65600</v>
@@ -1308,16 +1308,16 @@
         <v>1520949.230769231</v>
       </c>
       <c r="C7" t="n">
-        <v>1520949.23076923</v>
+        <v>265563.3020676024</v>
       </c>
       <c r="D7" t="n">
-        <v>265562.5641025638</v>
+        <v>2106298.201108694</v>
       </c>
       <c r="E7" t="n">
+        <v>624411.6666666666</v>
+      </c>
+      <c r="F7" t="n">
         <v>465537.6923076921</v>
-      </c>
-      <c r="F7" t="n">
-        <v>240158.3333333333</v>
       </c>
       <c r="G7" t="n">
         <v>65600</v>
@@ -1436,19 +1436,19 @@
         <v>2027</v>
       </c>
       <c r="B8" t="n">
-        <v>265562.5641025642</v>
+        <v>1520949.23076923</v>
       </c>
       <c r="C8" t="n">
-        <v>1520949.23076923</v>
+        <v>265562.5641025638</v>
       </c>
       <c r="D8" t="n">
-        <v>265562.5641025638</v>
+        <v>2106298.201108694</v>
       </c>
       <c r="E8" t="n">
+        <v>624411.6666666666</v>
+      </c>
+      <c r="F8" t="n">
         <v>81284.3589743589</v>
-      </c>
-      <c r="F8" t="n">
-        <v>240158.3333333333</v>
       </c>
       <c r="G8" t="n">
         <v>65600</v>
@@ -1567,19 +1567,19 @@
         <v>2028</v>
       </c>
       <c r="B9" t="n">
-        <v>265562.5641025642</v>
+        <v>265562.5641025638</v>
       </c>
       <c r="C9" t="n">
+        <v>265562.5641025638</v>
+      </c>
+      <c r="D9" t="n">
         <v>1520949.23076923</v>
       </c>
-      <c r="D9" t="n">
-        <v>265562.5641025638</v>
-      </c>
       <c r="E9" t="n">
+        <v>240158.3333333332</v>
+      </c>
+      <c r="F9" t="n">
         <v>81284.3589743589</v>
-      </c>
-      <c r="F9" t="n">
-        <v>240158.3333333333</v>
       </c>
       <c r="G9" t="n">
         <v>65600</v>
@@ -1591,73 +1591,73 @@
         <v>17600</v>
       </c>
       <c r="J9" t="n">
-        <v>18450.00000000002</v>
+        <v>18450</v>
       </c>
       <c r="K9" t="n">
-        <v>2952.000000000004</v>
+        <v>2952</v>
       </c>
       <c r="L9" t="n">
-        <v>1476.000000020057</v>
+        <v>1475.999999914253</v>
       </c>
       <c r="M9" t="n">
-        <v>2398.500000000003</v>
+        <v>2398.5</v>
       </c>
       <c r="N9" t="n">
-        <v>1660.500000000002</v>
+        <v>1660.5</v>
       </c>
       <c r="O9" t="n">
-        <v>8302.500000000009</v>
+        <v>8302.5</v>
       </c>
       <c r="P9" t="n">
-        <v>14760.00000000002</v>
+        <v>14760</v>
       </c>
       <c r="Q9" t="n">
-        <v>5535.000000000006</v>
+        <v>5535</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.000000000002</v>
+        <v>1845</v>
       </c>
       <c r="S9" t="n">
-        <v>9594.000000064339</v>
+        <v>9594</v>
       </c>
       <c r="T9" t="n">
-        <v>184.5000000643174</v>
+        <v>184.5</v>
       </c>
       <c r="U9" t="n">
-        <v>4981.500000000006</v>
+        <v>4981.5</v>
       </c>
       <c r="V9" t="n">
-        <v>3690.000000000005</v>
+        <v>3690</v>
       </c>
       <c r="W9" t="n">
-        <v>1291.500000000002</v>
+        <v>1291.5</v>
       </c>
       <c r="X9" t="n">
-        <v>8118.00000000001</v>
+        <v>8118</v>
       </c>
       <c r="Y9" t="n">
-        <v>6826.500000086262</v>
+        <v>6826.499999919464</v>
       </c>
       <c r="Z9" t="n">
-        <v>3690.000000000005</v>
+        <v>3690</v>
       </c>
       <c r="AA9" t="n">
-        <v>18.45000001582506</v>
+        <v>18.45</v>
       </c>
       <c r="AB9" t="n">
-        <v>92.25000007663006</v>
+        <v>92.25</v>
       </c>
       <c r="AC9" t="n">
-        <v>2214.000000000003</v>
+        <v>2214</v>
       </c>
       <c r="AD9" t="n">
-        <v>553.5000000000007</v>
+        <v>553.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>4981.500000000006</v>
+        <v>4981.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>1107.000000000001</v>
+        <v>1107.000000091323</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>2029</v>
       </c>
       <c r="B10" t="n">
-        <v>265562.5641025642</v>
+        <v>265562.5641025638</v>
       </c>
       <c r="C10" t="n">
         <v>265562.5641025638</v>
@@ -1707,10 +1707,10 @@
         <v>265562.5641025638</v>
       </c>
       <c r="E10" t="n">
+        <v>240158.3333333332</v>
+      </c>
+      <c r="F10" t="n">
         <v>81284.3589743589</v>
-      </c>
-      <c r="F10" t="n">
-        <v>240158.3333333333</v>
       </c>
       <c r="G10" t="n">
         <v>65600</v>
@@ -1722,73 +1722,73 @@
         <v>17600</v>
       </c>
       <c r="J10" t="n">
-        <v>12300.00000000001</v>
+        <v>12300</v>
       </c>
       <c r="K10" t="n">
-        <v>1968.000000000001</v>
+        <v>1968</v>
       </c>
       <c r="L10" t="n">
-        <v>984.0000000200555</v>
+        <v>983.9999999142512</v>
       </c>
       <c r="M10" t="n">
-        <v>1599.000000000001</v>
+        <v>1599</v>
       </c>
       <c r="N10" t="n">
         <v>1107</v>
       </c>
       <c r="O10" t="n">
-        <v>5535.000000000003</v>
+        <v>5535</v>
       </c>
       <c r="P10" t="n">
-        <v>9840.000000000004</v>
+        <v>9840</v>
       </c>
       <c r="Q10" t="n">
-        <v>3690.000000000002</v>
+        <v>3690</v>
       </c>
       <c r="R10" t="n">
         <v>1230</v>
       </c>
       <c r="S10" t="n">
-        <v>6396.000000064345</v>
+        <v>6396</v>
       </c>
       <c r="T10" t="n">
-        <v>123.0000000643175</v>
+        <v>123</v>
       </c>
       <c r="U10" t="n">
-        <v>3321.000000000001</v>
+        <v>3321</v>
       </c>
       <c r="V10" t="n">
-        <v>2460.000000000001</v>
+        <v>2460</v>
       </c>
       <c r="W10" t="n">
-        <v>861.0000000000003</v>
+        <v>861</v>
       </c>
       <c r="X10" t="n">
-        <v>5412.000000000003</v>
+        <v>5412</v>
       </c>
       <c r="Y10" t="n">
-        <v>4551.000000086256</v>
+        <v>4550.999999919458</v>
       </c>
       <c r="Z10" t="n">
-        <v>2460.000000000001</v>
+        <v>2460</v>
       </c>
       <c r="AA10" t="n">
-        <v>12.30000001582504</v>
+        <v>12.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>61.50000007662998</v>
+        <v>61.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>1476.000000000001</v>
+        <v>1476</v>
       </c>
       <c r="AD10" t="n">
-        <v>369.0000000000002</v>
+        <v>369</v>
       </c>
       <c r="AE10" t="n">
-        <v>3321.000000000001</v>
+        <v>3321</v>
       </c>
       <c r="AF10" t="n">
-        <v>738.0000000000003</v>
+        <v>738.0000000913222</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
@@ -1829,7 +1829,7 @@
         <v>2030</v>
       </c>
       <c r="B11" t="n">
-        <v>265562.5641025638</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="C11" t="n">
         <v>265562.5641025634</v>
@@ -1838,10 +1838,10 @@
         <v>265562.5641025634</v>
       </c>
       <c r="E11" t="n">
+        <v>240158.3333333333</v>
+      </c>
+      <c r="F11" t="n">
         <v>81284.35897435877</v>
-      </c>
-      <c r="F11" t="n">
-        <v>240158.3333333333</v>
       </c>
       <c r="G11" t="n">
         <v>65600</v>
@@ -1859,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>2.005506871682883e-08</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.434186516912632e-08</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.431744026258457e-08</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.625405945039688e-08</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.582503572628013e-08</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.662995238355563e-08</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -1960,7 +1960,7 @@
         <v>2031</v>
       </c>
       <c r="B12" t="n">
-        <v>265562.5641025638</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="C12" t="n">
         <v>265562.5641025634</v>
@@ -1969,10 +1969,10 @@
         <v>265562.5641025634</v>
       </c>
       <c r="E12" t="n">
+        <v>240158.3333333333</v>
+      </c>
+      <c r="F12" t="n">
         <v>81284.35897435877</v>
-      </c>
-      <c r="F12" t="n">
-        <v>240158.3333333333</v>
       </c>
       <c r="G12" t="n">
         <v>65600</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2.005506871682883e-08</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>6.434186516912632e-08</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -2029,16 +2029,16 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.625405945039688e-08</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.582503572628013e-08</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.662995238355563e-08</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -2091,7 +2091,7 @@
         <v>2032</v>
       </c>
       <c r="B13" t="n">
-        <v>265562.5641025638</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="C13" t="n">
         <v>265562.5641025634</v>
@@ -2100,10 +2100,10 @@
         <v>265562.5641025634</v>
       </c>
       <c r="E13" t="n">
+        <v>240158.3333333333</v>
+      </c>
+      <c r="F13" t="n">
         <v>81284.35897435877</v>
-      </c>
-      <c r="F13" t="n">
-        <v>240158.3333333333</v>
       </c>
       <c r="G13" t="n">
         <v>65600</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>2.005506871682883e-08</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>6.434186516912632e-08</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -2160,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.625405945039688e-08</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.05707546090472e-14</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>0</v>
@@ -2231,10 +2231,10 @@
         <v>265562.5641025634</v>
       </c>
       <c r="E14" t="n">
+        <v>240158.3333333333</v>
+      </c>
+      <c r="F14" t="n">
         <v>81284.35897435877</v>
-      </c>
-      <c r="F14" t="n">
-        <v>240158.3333333333</v>
       </c>
       <c r="G14" t="n">
         <v>65600</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.05707546090472e-14</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
@@ -2353,7 +2353,7 @@
         <v>2034</v>
       </c>
       <c r="B15" t="n">
-        <v>265562.5641025564</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="C15" t="n">
         <v>265562.5641025634</v>
@@ -2362,10 +2362,10 @@
         <v>265562.5641025634</v>
       </c>
       <c r="E15" t="n">
+        <v>240158.3333333333</v>
+      </c>
+      <c r="F15" t="n">
         <v>81284.35897435877</v>
-      </c>
-      <c r="F15" t="n">
-        <v>240158.3333333333</v>
       </c>
       <c r="G15" t="n">
         <v>65600</v>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.05707546090472e-14</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>2035</v>
       </c>
       <c r="B16" t="n">
-        <v>265562.5641025564</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="C16" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025589</v>
       </c>
       <c r="D16" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025589</v>
       </c>
       <c r="E16" t="n">
-        <v>81284.35897435895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>81284.35897435871</v>
       </c>
       <c r="G16" t="n">
         <v>65600</v>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.05707546090472e-14</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
@@ -2615,19 +2615,19 @@
         <v>2036</v>
       </c>
       <c r="B17" t="n">
-        <v>265562.5641025638</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="C17" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025589</v>
       </c>
       <c r="D17" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025589</v>
       </c>
       <c r="E17" t="n">
-        <v>81284.3589743589</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>81284.35897435871</v>
       </c>
       <c r="G17" t="n">
         <v>65600</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.05707546090472e-14</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
         <v>0</v>
@@ -2746,19 +2746,19 @@
         <v>2037</v>
       </c>
       <c r="B18" t="n">
-        <v>265562.5641025637</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="C18" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025589</v>
       </c>
       <c r="D18" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025589</v>
       </c>
       <c r="E18" t="n">
-        <v>81284.3589743589</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>81284.35897435882</v>
       </c>
       <c r="G18" t="n">
         <v>65600</v>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.05707546090472e-14</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
         <v>0</v>
@@ -2877,19 +2877,19 @@
         <v>2038</v>
       </c>
       <c r="B19" t="n">
-        <v>265562.5641025637</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="C19" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025589</v>
       </c>
       <c r="D19" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025589</v>
       </c>
       <c r="E19" t="n">
-        <v>81284.3589743589</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>81284.35897435882</v>
       </c>
       <c r="G19" t="n">
         <v>65600</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.05707546090472e-14</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
@@ -3008,7 +3008,7 @@
         <v>2039</v>
       </c>
       <c r="B20" t="n">
-        <v>265562.5641025637</v>
+        <v>265562.5641025634</v>
       </c>
       <c r="C20" t="n">
         <v>265562.5641025634</v>
@@ -3017,10 +3017,10 @@
         <v>265562.5641025634</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>81284.35897435882</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>65600</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.05707546090472e-14</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
@@ -3139,19 +3139,19 @@
         <v>2040</v>
       </c>
       <c r="B21" t="n">
-        <v>265562.5641025638</v>
+        <v>265562.5641025637</v>
       </c>
       <c r="C21" t="n">
         <v>265562.5641025634</v>
       </c>
       <c r="D21" t="n">
-        <v>265562.5641025634</v>
+        <v>265562.5641025637</v>
       </c>
       <c r="E21" t="n">
-        <v>81284.35897435881</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>81284.35897435882</v>
       </c>
       <c r="G21" t="n">
         <v>65600</v>
@@ -3214,7 +3214,7 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.05707546090472e-14</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
         <v>0</v>
